--- a/01_Input/00_CO Validation/Myanmar - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Myanmar - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27018"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="11_10448CB3BBC8A79A89107E47BA0E9DE9642947D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{648E3B9B-1954-40AB-B2C9-A9FDDC2730AE}"/>
+  <xr:revisionPtr revIDLastSave="315" documentId="11_10448CB3BBC8A79A89107E47BA0E9DE9642947D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B5FED53-3421-4D20-B272-A355054900EF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -194,9 +197,6 @@
     </r>
   </si>
   <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Number of HH provided with Solar home lighting systems </t>
   </si>
   <si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>TBD</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
   </si>
   <si>
     <t>Health Services</t>
@@ -704,33 +707,33 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1094,16 +1097,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="225">
-      <c r="A2" s="32">
+      <c r="A2" s="34">
         <v>104187</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="34">
         <v>4934228</v>
       </c>
       <c r="E2" s="7" t="s">
@@ -1118,15 +1121,15 @@
       <c r="H2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="33" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="135">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1139,13 +1142,13 @@
       <c r="H3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:11" ht="240">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1158,7 +1161,7 @@
       <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="1:11" ht="120">
       <c r="A5" s="5">
@@ -1248,7 +1251,7 @@
       </c>
       <c r="K7" s="17"/>
     </row>
-    <row r="8" spans="1:11" ht="60">
+    <row r="8" spans="1:11" ht="45.75">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -1259,10 +1262,10 @@
         <v>1348200</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>15</v>
@@ -1270,11 +1273,11 @@
       <c r="H8" s="5">
         <v>5000</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="I8" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="15" t="s">
         <v>40</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="45">
@@ -1291,7 +1294,7 @@
         <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>15</v>
@@ -1299,9 +1302,9 @@
       <c r="H9" s="9">
         <v>50000</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60.75">
@@ -1315,10 +1318,10 @@
         <v>753600</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>15</v>
@@ -1326,12 +1329,12 @@
       <c r="H10" s="5">
         <v>100</v>
       </c>
-      <c r="I10" s="30"/>
+      <c r="I10" s="32"/>
       <c r="J10" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60.75">
@@ -1345,20 +1348,20 @@
         <v>1906800</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" s="5">
         <v>168</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="32"/>
       <c r="J11" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="91.5">
@@ -1375,7 +1378,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>15</v>
@@ -1383,12 +1386,12 @@
       <c r="H12" s="5">
         <v>56</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="32"/>
       <c r="J12" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="K12" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="106.5">
@@ -1405,7 +1408,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>15</v>
@@ -1413,12 +1416,12 @@
       <c r="H13" s="5">
         <v>56</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="32"/>
       <c r="J13" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="39" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="K13" s="31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="90">
@@ -1432,10 +1435,10 @@
         <v>1030400</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>15</v>
@@ -1443,9 +1446,9 @@
       <c r="H14" s="5">
         <v>100</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="91.5">
@@ -1463,7 +1466,7 @@
         <v>25</v>
       </c>
       <c r="F15" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>15</v>
@@ -1471,12 +1474,12 @@
       <c r="H15" s="13">
         <v>56</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="32"/>
       <c r="J15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="K15" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="60.75">
@@ -1494,7 +1497,7 @@
         <v>25</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>15</v>
@@ -1502,12 +1505,12 @@
       <c r="H16" s="13">
         <v>34</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="32"/>
       <c r="J16" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K16" s="39" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="K16" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="76.5">
@@ -1525,7 +1528,7 @@
         <v>25</v>
       </c>
       <c r="F17" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>15</v>
@@ -1533,12 +1536,12 @@
       <c r="H17" s="13">
         <v>4</v>
       </c>
-      <c r="I17" s="30"/>
+      <c r="I17" s="32"/>
       <c r="J17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="39" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="60">
@@ -1546,29 +1549,29 @@
         <v>36</v>
       </c>
       <c r="B18" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" s="28" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="60">
@@ -1576,29 +1579,29 @@
         <v>36</v>
       </c>
       <c r="B19" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="E19" s="28" t="s">
-        <v>38</v>
-      </c>
       <c r="F19" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I19" s="11"/>
       <c r="J19" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="60">
@@ -1606,29 +1609,29 @@
         <v>36</v>
       </c>
       <c r="B20" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D20" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" s="28" t="s">
         <v>29</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H20" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I20" s="11"/>
       <c r="J20" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="60">
@@ -1636,29 +1639,29 @@
         <v>36</v>
       </c>
       <c r="B21" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D21" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="28" t="s">
         <v>20</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I21" s="11"/>
       <c r="J21" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60">
@@ -1666,29 +1669,29 @@
         <v>36</v>
       </c>
       <c r="B22" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D22" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" s="28" t="s">
         <v>58</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G22" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H22" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I22" s="11"/>
       <c r="J22" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="60">
@@ -1696,29 +1699,29 @@
         <v>36</v>
       </c>
       <c r="B23" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D23" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E23" s="28" t="s">
         <v>59</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H23" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I23" s="11"/>
       <c r="J23" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60">
@@ -1726,29 +1729,29 @@
         <v>36</v>
       </c>
       <c r="B24" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D24" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E24" s="28" t="s">
         <v>60</v>
       </c>
       <c r="F24" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G24" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H24" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I24" s="11"/>
       <c r="J24" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="60">
@@ -1756,29 +1759,29 @@
         <v>36</v>
       </c>
       <c r="B25" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D25" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E25" s="28" t="s">
         <v>61</v>
       </c>
       <c r="F25" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H25" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" s="11"/>
       <c r="J25" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
@@ -1786,29 +1789,29 @@
         <v>36</v>
       </c>
       <c r="B26" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D26" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>62</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G26" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I26" s="11"/>
       <c r="J26" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="60">
@@ -1816,29 +1819,29 @@
         <v>36</v>
       </c>
       <c r="B27" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D27" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>63</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G27" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H27" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="11"/>
       <c r="J27" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60">
@@ -1846,29 +1849,29 @@
         <v>36</v>
       </c>
       <c r="B28" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D28" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E28" s="28" t="s">
         <v>64</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G28" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H28" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="60">
@@ -1876,29 +1879,29 @@
         <v>36</v>
       </c>
       <c r="B29" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>56</v>
-      </c>
       <c r="D29" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E29" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G29" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="100.5" customHeight="1">
@@ -1957,7 +1960,7 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="30" t="s">
         <v>70</v>
       </c>
       <c r="B33" s="11"/>
@@ -2420,7 +2423,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B2" t="s">
@@ -2431,16 +2434,16 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="34"/>
+      <c r="A3" s="36"/>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" t="s">
         <v>29</v>
       </c>
@@ -2449,7 +2452,7 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>77</v>
       </c>
       <c r="B5" t="s">
@@ -2460,7 +2463,7 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="35"/>
+      <c r="A6" s="37"/>
       <c r="B6" t="s">
         <v>58</v>
       </c>
@@ -2469,7 +2472,7 @@
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="35"/>
+      <c r="A7" s="37"/>
       <c r="B7" t="s">
         <v>59</v>
       </c>
@@ -2478,7 +2481,7 @@
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" t="s">
         <v>60</v>
       </c>
@@ -2487,7 +2490,7 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="35"/>
+      <c r="A9" s="37"/>
       <c r="B9" t="s">
         <v>82</v>
       </c>
@@ -2496,7 +2499,7 @@
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>84</v>
       </c>
       <c r="B10" t="s">
@@ -2507,7 +2510,7 @@
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="36"/>
+      <c r="A11" s="38"/>
       <c r="B11" t="s">
         <v>61</v>
       </c>
@@ -2516,7 +2519,7 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="39" t="s">
         <v>88</v>
       </c>
       <c r="B12" t="s">
@@ -2527,7 +2530,7 @@
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="37"/>
+      <c r="A13" s="39"/>
       <c r="B13" t="s">
         <v>63</v>
       </c>
@@ -2536,7 +2539,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="37"/>
+      <c r="A14" s="39"/>
       <c r="B14" t="s">
         <v>64</v>
       </c>
@@ -2578,8 +2581,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd739a91710fed73edeed3c312976475">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="829e6ebd84bdd7e43dc34d34aecb984e" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -2603,6 +2615,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2678,6 +2691,11 @@
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="fb9e4d32-074f-4c04-81ef-e811753dfd59" elementFormDefault="qualified">
@@ -2820,15 +2838,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2893,11 +2902,11 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{356C69F5-D64B-47C1-A11D-A8E47D3E386F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AE853E-4F37-4A3C-B15C-49DE17FB657C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AE853E-4F37-4A3C-B15C-49DE17FB657C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83981D53-9EA2-4F8A-A632-D9F3E2E44328}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/01_Input/00_CO Validation/Myanmar - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Myanmar - Energy Projects.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/SEH/Energy-Moonshot-Tracker/01_Input/00_CO Validation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB382D-5162-0D4B-A9D6-F478C37769CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="528" documentId="11_10448CB3BBC8A79A89107E47BA0E9DE9642947D6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6606264-F8AF-4CC0-91FA-4D33866BF24B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="740" windowWidth="20740" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (4)" sheetId="5" r:id="rId1"/>
@@ -247,7 +247,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">UNDP-SPM Partnership for rural electrification
 </t>
@@ -257,7 +256,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>(Concept developed subject to resource mobilization)</t>
     </r>
@@ -441,7 +439,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve">3 villages in Shan state were supported with 1 solar pumping system and 2 solar bubble dryers. 
 </t>
@@ -451,7 +448,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t>Solar pumping - 15 HH
 Solar dryers - 30 HH in total (two villages)</t>
@@ -461,7 +457,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
-        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -643,7 +638,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -655,7 +650,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,9 +716,18 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -745,14 +748,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -973,7 +974,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -987,16 +988,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1005,27 +1006,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1038,7 +1039,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1078,10 +1079,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1122,6 +1123,33 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1130,33 +1158,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1496,30 +1497,30 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="9.1640625" style="2"/>
-    <col min="19" max="19" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="2"/>
+    <col min="12" max="12" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1584,7 +1585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23" ht="139.5" customHeight="1">
       <c r="A2" s="58">
         <v>104187</v>
       </c>
@@ -1629,7 +1630,7 @@
       <c r="T2" s="66"/>
       <c r="U2" s="68"/>
     </row>
-    <row r="3" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" ht="60.75">
       <c r="E3" s="71" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1661,7 @@
       <c r="T3" s="66"/>
       <c r="U3" s="68"/>
     </row>
-    <row r="4" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="76.5">
       <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
@@ -1691,7 +1692,7 @@
       <c r="T4" s="66"/>
       <c r="U4" s="68"/>
     </row>
-    <row r="5" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" ht="91.5">
       <c r="A5" s="2">
         <v>111777</v>
       </c>
@@ -1736,7 +1737,7 @@
       <c r="T5" s="66"/>
       <c r="U5" s="68"/>
     </row>
-    <row r="6" spans="1:23" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" ht="106.5">
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
@@ -1769,7 +1770,7 @@
       <c r="T6" s="66"/>
       <c r="U6" s="68"/>
     </row>
-    <row r="7" spans="1:23" ht="224" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" ht="244.5">
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
@@ -1803,7 +1804,7 @@
       <c r="U7" s="68"/>
       <c r="W7" s="14"/>
     </row>
-    <row r="8" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" ht="45.75">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -1825,7 +1826,7 @@
       <c r="H8" s="2">
         <v>5000</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="75" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -1846,7 +1847,7 @@
       <c r="T8" s="66"/>
       <c r="U8" s="68"/>
     </row>
-    <row r="9" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" ht="45.75">
       <c r="B9" s="7"/>
       <c r="D9" s="6">
         <v>1624000</v>
@@ -1863,7 +1864,7 @@
       <c r="H9" s="6">
         <v>50000</v>
       </c>
-      <c r="I9" s="78"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="72"/>
       <c r="L9" s="65" t="s">
         <v>27</v>
@@ -1878,7 +1879,7 @@
       <c r="T9" s="66"/>
       <c r="U9" s="68"/>
     </row>
-    <row r="10" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" ht="76.5">
       <c r="B10" s="7"/>
       <c r="D10" s="6">
         <v>753600</v>
@@ -1895,7 +1896,7 @@
       <c r="H10" s="12">
         <v>100</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="72"/>
       <c r="L10" s="65" t="s">
         <v>27</v>
@@ -1913,7 +1914,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" ht="76.5">
       <c r="B11" s="7"/>
       <c r="D11" s="6">
         <v>1906800</v>
@@ -1928,7 +1929,7 @@
       <c r="H11" s="12">
         <v>168</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="72"/>
       <c r="L11" s="65" t="s">
         <v>27</v>
@@ -1946,7 +1947,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:23" ht="91.5">
       <c r="B12" s="7"/>
       <c r="D12" s="6">
         <v>682360</v>
@@ -1963,7 +1964,7 @@
       <c r="H12" s="12">
         <v>56</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="72"/>
       <c r="L12" s="65" t="s">
         <v>27</v>
@@ -1981,7 +1982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:23" ht="106.5">
       <c r="B13" s="7"/>
       <c r="D13" s="6">
         <v>529200</v>
@@ -1998,7 +1999,7 @@
       <c r="H13" s="12">
         <v>56</v>
       </c>
-      <c r="I13" s="78"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="72"/>
       <c r="L13" s="65" t="s">
         <v>27</v>
@@ -2016,7 +2017,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23" ht="91.5">
       <c r="B14" s="7"/>
       <c r="D14" s="6">
         <v>1030400</v>
@@ -2033,7 +2034,7 @@
       <c r="H14" s="12">
         <v>100</v>
       </c>
-      <c r="I14" s="78"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="72"/>
       <c r="L14" s="65" t="s">
         <v>27</v>
@@ -2048,7 +2049,7 @@
       <c r="T14" s="66"/>
       <c r="U14" s="68"/>
     </row>
-    <row r="15" spans="1:23" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" ht="91.5">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11">
@@ -2066,7 +2067,7 @@
       <c r="H15" s="74">
         <v>56</v>
       </c>
-      <c r="I15" s="78"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="72"/>
       <c r="L15" s="65" t="s">
         <v>27</v>
@@ -2084,7 +2085,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" ht="76.5">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11">
@@ -2102,7 +2103,7 @@
       <c r="H16" s="74">
         <v>34</v>
       </c>
-      <c r="I16" s="78"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="72"/>
       <c r="L16" s="65" t="s">
         <v>27</v>
@@ -2120,7 +2121,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23" ht="76.5">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11">
@@ -2138,7 +2139,7 @@
       <c r="H17" s="10">
         <v>4</v>
       </c>
-      <c r="I17" s="78"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="72"/>
       <c r="L17" s="65" t="s">
         <v>27</v>
@@ -2156,7 +2157,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:23" ht="60.75">
       <c r="B18" s="24" t="s">
         <v>69</v>
       </c>
@@ -2193,7 +2194,7 @@
       <c r="T18" s="66"/>
       <c r="U18" s="68"/>
     </row>
-    <row r="19" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:23">
       <c r="A19" s="8"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24" t="s">
@@ -2230,7 +2231,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:23">
       <c r="A20" s="8"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24" t="s">
@@ -2264,7 +2265,7 @@
       <c r="T20" s="66"/>
       <c r="U20" s="68"/>
     </row>
-    <row r="21" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="8"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24" t="s">
@@ -2298,7 +2299,7 @@
       <c r="T21" s="66"/>
       <c r="U21" s="68"/>
     </row>
-    <row r="22" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:23">
       <c r="A22" s="26"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24" t="s">
@@ -2332,7 +2333,7 @@
       <c r="T22" s="66"/>
       <c r="U22" s="68"/>
     </row>
-    <row r="23" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="26"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24" t="s">
@@ -2366,7 +2367,7 @@
       <c r="T23" s="66"/>
       <c r="U23" s="68"/>
     </row>
-    <row r="24" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="26"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24" t="s">
@@ -2400,7 +2401,7 @@
       <c r="T24" s="66"/>
       <c r="U24" s="68"/>
     </row>
-    <row r="25" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="26"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24" t="s">
@@ -2434,7 +2435,7 @@
       <c r="T25" s="66"/>
       <c r="U25" s="68"/>
     </row>
-    <row r="26" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="26"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24" t="s">
@@ -2468,7 +2469,7 @@
       <c r="T26" s="66"/>
       <c r="U26" s="68"/>
     </row>
-    <row r="27" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="26"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -2502,7 +2503,7 @@
       <c r="T27" s="66"/>
       <c r="U27" s="68"/>
     </row>
-    <row r="28" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="26"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24" t="s">
@@ -2536,7 +2537,7 @@
       <c r="T28" s="66"/>
       <c r="U28" s="68"/>
     </row>
-    <row r="29" spans="1:23" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="26"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24" t="s">
@@ -2570,7 +2571,7 @@
       <c r="T29" s="66"/>
       <c r="U29" s="68"/>
     </row>
-    <row r="30" spans="1:23" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23" ht="100.5" customHeight="1">
       <c r="A30" s="17">
         <v>112026</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2628,7 +2629,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2639,7 +2640,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -2648,7 +2649,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -2659,7 +2660,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -2670,7 +2671,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -2681,7 +2682,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -2692,7 +2693,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -2703,7 +2704,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -2714,7 +2715,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -2725,7 +2726,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2736,7 +2737,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2747,7 +2748,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2758,7 +2759,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2769,7 +2770,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -2780,7 +2781,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -2791,7 +2792,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -2802,7 +2803,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2813,7 +2814,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -2824,7 +2825,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2835,7 +2836,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2846,7 +2847,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -2857,7 +2858,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -2868,7 +2869,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -2879,7 +2880,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -2890,7 +2891,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -2901,7 +2902,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2912,7 +2913,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -2923,7 +2924,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -2934,7 +2935,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -2945,7 +2946,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -2956,7 +2957,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -2967,7 +2968,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -2978,7 +2979,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -2989,7 +2990,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3000,7 +3001,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3011,7 +3012,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3022,7 +3023,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3033,7 +3034,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3104,30 +3105,30 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="L2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="2"/>
-    <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="2"/>
+    <col min="12" max="12" width="14.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="75">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -3168,17 +3169,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="208" x14ac:dyDescent="0.2">
-      <c r="A2" s="80">
+    <row r="2" spans="1:15" ht="225">
+      <c r="A2" s="77">
         <v>104187</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="77">
         <v>4934228</v>
       </c>
       <c r="E2" s="35" t="s">
@@ -3193,7 +3194,7 @@
       <c r="H2" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="81" t="s">
+      <c r="I2" s="78" t="s">
         <v>90</v>
       </c>
       <c r="J2" s="36"/>
@@ -3204,11 +3205,11 @@
       </c>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
+    <row r="3" spans="1:15" ht="135">
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="36" t="s">
         <v>19</v>
       </c>
@@ -3221,17 +3222,17 @@
       <c r="H3" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="81"/>
+      <c r="I3" s="78"/>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
     </row>
-    <row r="4" spans="1:15" ht="192" x14ac:dyDescent="0.2">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
+    <row r="4" spans="1:15" ht="240">
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="36" t="s">
         <v>92</v>
       </c>
@@ -3244,13 +3245,13 @@
       <c r="H4" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="81"/>
+      <c r="I4" s="78"/>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
       <c r="L4" s="34"/>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="150">
       <c r="A5" s="36">
         <v>111777</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="225">
       <c r="A6" s="36">
         <v>111777</v>
       </c>
@@ -3326,7 +3327,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="240" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="255">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="37"/>
@@ -3351,7 +3352,7 @@
       <c r="L7" s="34"/>
       <c r="M7" s="34"/>
     </row>
-    <row r="8" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="60">
       <c r="A8" s="54" t="s">
         <v>51</v>
       </c>
@@ -3374,7 +3375,7 @@
       <c r="H8" s="36">
         <v>5000</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="76" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="44" t="s">
@@ -3389,7 +3390,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="45">
       <c r="A9" s="36"/>
       <c r="B9" s="42"/>
       <c r="C9" s="36"/>
@@ -3408,7 +3409,7 @@
       <c r="H9" s="43">
         <v>50000</v>
       </c>
-      <c r="I9" s="79"/>
+      <c r="I9" s="76"/>
       <c r="J9" s="44" t="s">
         <v>55</v>
       </c>
@@ -3421,7 +3422,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="60">
       <c r="A10" s="36"/>
       <c r="B10" s="42"/>
       <c r="C10" s="36"/>
@@ -3440,7 +3441,7 @@
       <c r="H10" s="36">
         <v>100</v>
       </c>
-      <c r="I10" s="79"/>
+      <c r="I10" s="76"/>
       <c r="J10" s="44" t="s">
         <v>55</v>
       </c>
@@ -3455,7 +3456,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="60">
       <c r="A11" s="36"/>
       <c r="B11" s="42"/>
       <c r="C11" s="36"/>
@@ -3472,7 +3473,7 @@
       <c r="H11" s="36">
         <v>168</v>
       </c>
-      <c r="I11" s="79"/>
+      <c r="I11" s="76"/>
       <c r="J11" s="44" t="s">
         <v>55</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="90">
       <c r="A12" s="36"/>
       <c r="B12" s="42"/>
       <c r="C12" s="36"/>
@@ -3506,7 +3507,7 @@
       <c r="H12" s="36">
         <v>56</v>
       </c>
-      <c r="I12" s="79"/>
+      <c r="I12" s="76"/>
       <c r="J12" s="44" t="s">
         <v>55</v>
       </c>
@@ -3521,7 +3522,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="135">
       <c r="A13" s="36"/>
       <c r="B13" s="42"/>
       <c r="C13" s="36"/>
@@ -3540,7 +3541,7 @@
       <c r="H13" s="36">
         <v>56</v>
       </c>
-      <c r="I13" s="79"/>
+      <c r="I13" s="76"/>
       <c r="J13" s="44" t="s">
         <v>55</v>
       </c>
@@ -3555,7 +3556,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="90">
       <c r="A14" s="36"/>
       <c r="B14" s="42"/>
       <c r="C14" s="36"/>
@@ -3574,7 +3575,7 @@
       <c r="H14" s="36">
         <v>100</v>
       </c>
-      <c r="I14" s="79"/>
+      <c r="I14" s="76"/>
       <c r="J14" s="44" t="s">
         <v>55</v>
       </c>
@@ -3587,7 +3588,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="90">
       <c r="A15" s="36"/>
       <c r="B15" s="42"/>
       <c r="C15" s="36"/>
@@ -3606,7 +3607,7 @@
       <c r="H15" s="36">
         <v>56</v>
       </c>
-      <c r="I15" s="79"/>
+      <c r="I15" s="76"/>
       <c r="J15" s="44" t="s">
         <v>55</v>
       </c>
@@ -3621,7 +3622,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="60">
       <c r="A16" s="36"/>
       <c r="B16" s="42"/>
       <c r="C16" s="36"/>
@@ -3640,7 +3641,7 @@
       <c r="H16" s="36">
         <v>34</v>
       </c>
-      <c r="I16" s="79"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="44" t="s">
         <v>55</v>
       </c>
@@ -3655,7 +3656,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="75">
       <c r="A17" s="36"/>
       <c r="B17" s="42"/>
       <c r="C17" s="36"/>
@@ -3674,7 +3675,7 @@
       <c r="H17" s="36">
         <v>4</v>
       </c>
-      <c r="I17" s="79"/>
+      <c r="I17" s="76"/>
       <c r="J17" s="44" t="s">
         <v>55</v>
       </c>
@@ -3689,7 +3690,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="60">
       <c r="A18" s="54" t="s">
         <v>51</v>
       </c>
@@ -3722,7 +3723,7 @@
       <c r="L18" s="34"/>
       <c r="M18" s="34"/>
     </row>
-    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" s="47"/>
       <c r="B19" s="48"/>
       <c r="C19" s="48" t="s">
@@ -3751,7 +3752,7 @@
       <c r="L19" s="34"/>
       <c r="M19" s="34"/>
     </row>
-    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" s="47"/>
       <c r="B20" s="48"/>
       <c r="C20" s="48" t="s">
@@ -3780,7 +3781,7 @@
       <c r="L20" s="34"/>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" s="47"/>
       <c r="B21" s="48"/>
       <c r="C21" s="48" t="s">
@@ -3809,7 +3810,7 @@
       <c r="L21" s="34"/>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13">
       <c r="A22" s="50"/>
       <c r="B22" s="48"/>
       <c r="C22" s="48" t="s">
@@ -3838,7 +3839,7 @@
       <c r="L22" s="34"/>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" s="50"/>
       <c r="B23" s="48"/>
       <c r="C23" s="48" t="s">
@@ -3867,7 +3868,7 @@
       <c r="L23" s="34"/>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" s="50"/>
       <c r="B24" s="48"/>
       <c r="C24" s="48" t="s">
@@ -3896,7 +3897,7 @@
       <c r="L24" s="34"/>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13">
       <c r="A25" s="50"/>
       <c r="B25" s="48"/>
       <c r="C25" s="48" t="s">
@@ -3925,7 +3926,7 @@
       <c r="L25" s="34"/>
       <c r="M25" s="34"/>
     </row>
-    <row r="26" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" s="50"/>
       <c r="B26" s="48"/>
       <c r="C26" s="48" t="s">
@@ -3954,7 +3955,7 @@
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
     </row>
-    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" s="50"/>
       <c r="B27" s="48"/>
       <c r="C27" s="48" t="s">
@@ -3983,7 +3984,7 @@
       <c r="L27" s="34"/>
       <c r="M27" s="34"/>
     </row>
-    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" s="50"/>
       <c r="B28" s="48"/>
       <c r="C28" s="48" t="s">
@@ -4012,7 +4013,7 @@
       <c r="L28" s="34"/>
       <c r="M28" s="34"/>
     </row>
-    <row r="29" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" s="50"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48" t="s">
@@ -4041,7 +4042,7 @@
       <c r="L29" s="34"/>
       <c r="M29" s="34"/>
     </row>
-    <row r="30" spans="1:13" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="100.5" customHeight="1">
       <c r="A30" s="51">
         <v>112026</v>
       </c>
@@ -4081,7 +4082,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -4092,7 +4093,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -4103,7 +4104,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="27" t="s">
         <v>72</v>
       </c>
@@ -4115,7 +4116,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -4126,7 +4127,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -4137,7 +4138,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -4148,7 +4149,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -4159,7 +4160,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -4170,7 +4171,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -4181,7 +4182,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -4192,7 +4193,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -4203,7 +4204,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -4214,7 +4215,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -4225,7 +4226,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -4236,7 +4237,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -4247,7 +4248,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -4258,7 +4259,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -4269,7 +4270,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -4280,7 +4281,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -4291,7 +4292,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -4302,7 +4303,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -4313,7 +4314,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -4324,7 +4325,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -4335,7 +4336,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -4346,7 +4347,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -4357,7 +4358,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -4368,7 +4369,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -4379,7 +4380,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -4390,7 +4391,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -4401,7 +4402,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -4412,7 +4413,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4423,7 +4424,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4434,7 +4435,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4445,7 +4446,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4456,7 +4457,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4467,7 +4468,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4478,7 +4479,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4489,7 +4490,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4500,7 +4501,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4550,26 +4551,26 @@
       <selection pane="bottomLeft" activeCell="A9" sqref="A9:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="31.6640625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="2"/>
-    <col min="15" max="15" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="2"/>
+    <col min="12" max="12" width="14.7109375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="31.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4610,17 +4611,17 @@
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="208" x14ac:dyDescent="0.2">
-      <c r="A2" s="82">
+    <row r="2" spans="1:15" ht="225">
+      <c r="A2" s="79">
         <v>104187</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="79">
         <v>4934228</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -4635,7 +4636,7 @@
       <c r="H2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="81" t="s">
         <v>90</v>
       </c>
       <c r="L2" s="30"/>
@@ -4644,11 +4645,11 @@
       </c>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" spans="1:15" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+    <row r="3" spans="1:15" ht="135">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
@@ -4661,15 +4662,15 @@
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="81"/>
       <c r="L3" s="30"/>
       <c r="M3" s="30"/>
     </row>
-    <row r="4" spans="1:15" ht="192" x14ac:dyDescent="0.2">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+    <row r="4" spans="1:15" ht="240">
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="2" t="s">
         <v>92</v>
       </c>
@@ -4682,11 +4683,11 @@
       <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="84"/>
+      <c r="I4" s="81"/>
       <c r="L4" s="30"/>
       <c r="M4" s="30"/>
     </row>
-    <row r="5" spans="1:15" ht="128" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="150">
       <c r="A5" s="2">
         <v>111777</v>
       </c>
@@ -4722,7 +4723,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="192" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="225">
       <c r="A6" s="2">
         <v>111777</v>
       </c>
@@ -4758,7 +4759,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="240" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="255">
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
@@ -4780,7 +4781,7 @@
       <c r="L7" s="30"/>
       <c r="M7" s="30"/>
     </row>
-    <row r="8" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="60">
       <c r="A8" s="2" t="s">
         <v>114</v>
       </c>
@@ -4802,7 +4803,7 @@
       <c r="H8" s="2">
         <v>5000</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="75" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -4816,7 +4817,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="45">
       <c r="A9" s="2" t="s">
         <v>114</v>
       </c>
@@ -4838,7 +4839,7 @@
       <c r="H9" s="6">
         <v>50000</v>
       </c>
-      <c r="I9" s="78"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="12" t="s">
         <v>55</v>
       </c>
@@ -4850,7 +4851,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="60">
       <c r="A10" s="2" t="s">
         <v>114</v>
       </c>
@@ -4872,7 +4873,7 @@
       <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="12" t="s">
         <v>55</v>
       </c>
@@ -4887,7 +4888,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="60">
       <c r="A11" s="2" t="s">
         <v>114</v>
       </c>
@@ -4906,7 +4907,7 @@
       <c r="H11" s="2">
         <v>168</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="12" t="s">
         <v>55</v>
       </c>
@@ -4921,7 +4922,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="90">
       <c r="A12" s="2" t="s">
         <v>114</v>
       </c>
@@ -4943,7 +4944,7 @@
       <c r="H12" s="2">
         <v>56</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="12" t="s">
         <v>55</v>
       </c>
@@ -4958,7 +4959,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="135">
       <c r="A13" s="2" t="s">
         <v>114</v>
       </c>
@@ -4980,7 +4981,7 @@
       <c r="H13" s="2">
         <v>56</v>
       </c>
-      <c r="I13" s="78"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="12" t="s">
         <v>55</v>
       </c>
@@ -4995,7 +4996,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="90">
       <c r="A14" s="2" t="s">
         <v>114</v>
       </c>
@@ -5017,7 +5018,7 @@
       <c r="H14" s="2">
         <v>100</v>
       </c>
-      <c r="I14" s="78"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="12" t="s">
         <v>55</v>
       </c>
@@ -5029,7 +5030,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="90">
       <c r="A15" s="2" t="s">
         <v>114</v>
       </c>
@@ -5052,7 +5053,7 @@
       <c r="H15" s="10">
         <v>56</v>
       </c>
-      <c r="I15" s="78"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="12" t="s">
         <v>55</v>
       </c>
@@ -5067,7 +5068,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="60">
       <c r="A16" s="2" t="s">
         <v>114</v>
       </c>
@@ -5090,7 +5091,7 @@
       <c r="H16" s="10">
         <v>34</v>
       </c>
-      <c r="I16" s="78"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="12" t="s">
         <v>55</v>
       </c>
@@ -5105,7 +5106,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="75">
       <c r="A17" s="2" t="s">
         <v>114</v>
       </c>
@@ -5128,7 +5129,7 @@
       <c r="H17" s="10">
         <v>4</v>
       </c>
-      <c r="I17" s="78"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="12" t="s">
         <v>55</v>
       </c>
@@ -5143,7 +5144,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="60">
       <c r="A18" s="8" t="s">
         <v>114</v>
       </c>
@@ -5175,7 +5176,7 @@
       <c r="L18" s="30"/>
       <c r="M18" s="30"/>
     </row>
-    <row r="19" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="60">
       <c r="A19" s="8" t="s">
         <v>114</v>
       </c>
@@ -5207,7 +5208,7 @@
       <c r="L19" s="30"/>
       <c r="M19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="60">
       <c r="A20" s="8" t="s">
         <v>114</v>
       </c>
@@ -5239,7 +5240,7 @@
       <c r="L20" s="30"/>
       <c r="M20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="60">
       <c r="A21" s="8" t="s">
         <v>114</v>
       </c>
@@ -5271,7 +5272,7 @@
       <c r="L21" s="30"/>
       <c r="M21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="60">
       <c r="A22" s="26" t="s">
         <v>114</v>
       </c>
@@ -5303,7 +5304,7 @@
       <c r="L22" s="30"/>
       <c r="M22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" ht="60">
       <c r="A23" s="26" t="s">
         <v>114</v>
       </c>
@@ -5335,7 +5336,7 @@
       <c r="L23" s="30"/>
       <c r="M23" s="30"/>
     </row>
-    <row r="24" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" ht="60">
       <c r="A24" s="26" t="s">
         <v>114</v>
       </c>
@@ -5367,7 +5368,7 @@
       <c r="L24" s="30"/>
       <c r="M24" s="30"/>
     </row>
-    <row r="25" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="60">
       <c r="A25" s="26" t="s">
         <v>114</v>
       </c>
@@ -5399,7 +5400,7 @@
       <c r="L25" s="30"/>
       <c r="M25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="60">
       <c r="A26" s="26" t="s">
         <v>114</v>
       </c>
@@ -5431,7 +5432,7 @@
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="60">
       <c r="A27" s="26" t="s">
         <v>114</v>
       </c>
@@ -5463,7 +5464,7 @@
       <c r="L27" s="30"/>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" ht="60">
       <c r="A28" s="26" t="s">
         <v>114</v>
       </c>
@@ -5495,7 +5496,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" ht="60">
       <c r="A29" s="26" t="s">
         <v>114</v>
       </c>
@@ -5527,7 +5528,7 @@
       <c r="L29" s="30"/>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" ht="100.5" customHeight="1">
       <c r="A30" s="17">
         <v>112026</v>
       </c>
@@ -5567,7 +5568,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -5578,7 +5579,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -5589,7 +5590,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="A33" s="27" t="s">
         <v>72</v>
       </c>
@@ -5601,7 +5602,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -5612,7 +5613,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -5623,7 +5624,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -5634,7 +5635,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -5645,7 +5646,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -5656,7 +5657,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -5667,7 +5668,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -5678,7 +5679,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -5689,7 +5690,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -5700,7 +5701,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -5711,7 +5712,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -5722,7 +5723,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -5733,7 +5734,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -5744,7 +5745,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -5755,7 +5756,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -5766,7 +5767,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -5777,7 +5778,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -5788,7 +5789,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -5799,7 +5800,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -5810,7 +5811,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -5821,7 +5822,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -5832,7 +5833,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -5843,7 +5844,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -5854,7 +5855,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -5865,7 +5866,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -5876,7 +5877,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -5887,7 +5888,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -5898,7 +5899,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -5909,7 +5910,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -5920,7 +5921,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -5931,7 +5932,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -5942,7 +5943,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -5953,7 +5954,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -5964,7 +5965,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -5975,7 +5976,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -5986,7 +5987,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -6033,27 +6034,27 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.5" style="2" customWidth="1"/>
-    <col min="2" max="2" width="48.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="23.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="48.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="23.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.5" style="2" customWidth="1"/>
-    <col min="13" max="13" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.1640625" style="2"/>
+    <col min="12" max="12" width="19.5703125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="30.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6091,17 +6092,17 @@
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="208" x14ac:dyDescent="0.2">
-      <c r="A2" s="82">
+    <row r="2" spans="1:13" ht="213">
+      <c r="A2" s="79">
         <v>104187</v>
       </c>
-      <c r="B2" s="82" t="s">
+      <c r="B2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="82">
+      <c r="D2" s="79">
         <v>4934228</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -6116,7 +6117,7 @@
       <c r="H2" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I2" s="84" t="s">
+      <c r="I2" s="81" t="s">
         <v>90</v>
       </c>
       <c r="L2" s="28" t="s">
@@ -6124,11 +6125,11 @@
       </c>
       <c r="M2" s="29"/>
     </row>
-    <row r="3" spans="1:13" ht="112" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
+    <row r="3" spans="1:13" ht="135">
+      <c r="A3" s="80"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="2" t="s">
         <v>19</v>
       </c>
@@ -6141,13 +6142,13 @@
       <c r="H3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="84"/>
-    </row>
-    <row r="4" spans="1:13" ht="192" x14ac:dyDescent="0.2">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
+      <c r="I3" s="81"/>
+    </row>
+    <row r="4" spans="1:13" ht="240">
+      <c r="A4" s="80"/>
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
       <c r="E4" s="2" t="s">
         <v>92</v>
       </c>
@@ -6160,9 +6161,9 @@
       <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="84"/>
-    </row>
-    <row r="5" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+      <c r="I4" s="81"/>
+    </row>
+    <row r="5" spans="1:13" ht="120">
       <c r="A5" s="2">
         <v>111777</v>
       </c>
@@ -6191,7 +6192,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="121.5">
       <c r="C6" s="3"/>
       <c r="D6" s="5"/>
       <c r="E6" s="2" t="s">
@@ -6210,7 +6211,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="240" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="255">
       <c r="C7" s="3"/>
       <c r="D7" s="5"/>
       <c r="E7" s="2" t="s">
@@ -6230,7 +6231,7 @@
       </c>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:13" ht="112" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="121.5">
       <c r="A8" s="2" t="s">
         <v>114</v>
       </c>
@@ -6252,7 +6253,7 @@
       <c r="H8" s="2">
         <v>5000</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="75" t="s">
         <v>54</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -6262,7 +6263,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="45.75">
       <c r="B9" s="7"/>
       <c r="D9" s="6">
         <v>1624000</v>
@@ -6279,12 +6280,12 @@
       <c r="H9" s="6">
         <v>50000</v>
       </c>
-      <c r="I9" s="78"/>
+      <c r="I9" s="75"/>
       <c r="J9" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="60.75">
       <c r="B10" s="7"/>
       <c r="D10" s="6">
         <v>753600</v>
@@ -6301,7 +6302,7 @@
       <c r="H10" s="2">
         <v>100</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="75"/>
       <c r="J10" s="12" t="s">
         <v>55</v>
       </c>
@@ -6309,7 +6310,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="60.75">
       <c r="B11" s="7"/>
       <c r="D11" s="6">
         <v>1906800</v>
@@ -6323,7 +6324,7 @@
       <c r="H11" s="2">
         <v>168</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="75"/>
       <c r="J11" s="12" t="s">
         <v>55</v>
       </c>
@@ -6331,7 +6332,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="91.5">
       <c r="B12" s="7"/>
       <c r="D12" s="6">
         <v>682360</v>
@@ -6348,7 +6349,7 @@
       <c r="H12" s="2">
         <v>56</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="75"/>
       <c r="J12" s="12" t="s">
         <v>55</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="106.5">
       <c r="B13" s="7"/>
       <c r="D13" s="6">
         <v>529200</v>
@@ -6373,7 +6374,7 @@
       <c r="H13" s="2">
         <v>56</v>
       </c>
-      <c r="I13" s="78"/>
+      <c r="I13" s="75"/>
       <c r="J13" s="12" t="s">
         <v>55</v>
       </c>
@@ -6381,7 +6382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="91.5">
       <c r="B14" s="7"/>
       <c r="D14" s="6">
         <v>1030400</v>
@@ -6398,12 +6399,12 @@
       <c r="H14" s="2">
         <v>100</v>
       </c>
-      <c r="I14" s="78"/>
+      <c r="I14" s="75"/>
       <c r="J14" s="12" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="91.5">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11">
@@ -6421,7 +6422,7 @@
       <c r="H15" s="10">
         <v>56</v>
       </c>
-      <c r="I15" s="78"/>
+      <c r="I15" s="75"/>
       <c r="J15" s="12" t="s">
         <v>55</v>
       </c>
@@ -6429,7 +6430,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="60.75">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11">
@@ -6447,7 +6448,7 @@
       <c r="H16" s="10">
         <v>34</v>
       </c>
-      <c r="I16" s="78"/>
+      <c r="I16" s="75"/>
       <c r="J16" s="12" t="s">
         <v>55</v>
       </c>
@@ -6455,7 +6456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="76.5">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11">
@@ -6473,7 +6474,7 @@
       <c r="H17" s="10">
         <v>4</v>
       </c>
-      <c r="I17" s="78"/>
+      <c r="I17" s="75"/>
       <c r="J17" s="12" t="s">
         <v>55</v>
       </c>
@@ -6481,7 +6482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="76.5" customHeight="1">
       <c r="A18" s="8" t="s">
         <v>114</v>
       </c>
@@ -6510,11 +6511,11 @@
       <c r="J18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="83" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="183" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="183" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="24"/>
       <c r="C19" s="24" t="s">
@@ -6539,12 +6540,12 @@
       <c r="J19" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K19" s="85" t="s">
+      <c r="K19" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="86"/>
-    </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="L19" s="83"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="8"/>
       <c r="B20" s="24"/>
       <c r="C20" s="24" t="s">
@@ -6569,10 +6570,10 @@
       <c r="J20" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K20" s="85"/>
-      <c r="L20" s="86"/>
-    </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K20" s="82"/>
+      <c r="L20" s="83"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="8"/>
       <c r="B21" s="24"/>
       <c r="C21" s="24" t="s">
@@ -6597,10 +6598,10 @@
       <c r="J21" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="85"/>
-      <c r="L21" s="86"/>
-    </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K21" s="82"/>
+      <c r="L21" s="83"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="26"/>
       <c r="B22" s="24"/>
       <c r="C22" s="24" t="s">
@@ -6625,10 +6626,10 @@
       <c r="J22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K22" s="85"/>
-      <c r="L22" s="86"/>
-    </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K22" s="82"/>
+      <c r="L22" s="83"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="26"/>
       <c r="B23" s="24"/>
       <c r="C23" s="24" t="s">
@@ -6653,10 +6654,10 @@
       <c r="J23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="85"/>
-      <c r="L23" s="86"/>
-    </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="26"/>
       <c r="B24" s="24"/>
       <c r="C24" s="24" t="s">
@@ -6681,10 +6682,10 @@
       <c r="J24" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="85"/>
-      <c r="L24" s="86"/>
-    </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="26"/>
       <c r="B25" s="24"/>
       <c r="C25" s="24" t="s">
@@ -6709,10 +6710,10 @@
       <c r="J25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K25" s="85"/>
-      <c r="L25" s="86"/>
-    </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K25" s="82"/>
+      <c r="L25" s="83"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="26"/>
       <c r="B26" s="24"/>
       <c r="C26" s="24" t="s">
@@ -6737,10 +6738,10 @@
       <c r="J26" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K26" s="85"/>
-      <c r="L26" s="86"/>
-    </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K26" s="82"/>
+      <c r="L26" s="83"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="26"/>
       <c r="B27" s="24"/>
       <c r="C27" s="24" t="s">
@@ -6765,10 +6766,10 @@
       <c r="J27" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K27" s="85"/>
-      <c r="L27" s="86"/>
-    </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K27" s="82"/>
+      <c r="L27" s="83"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="26"/>
       <c r="B28" s="24"/>
       <c r="C28" s="24" t="s">
@@ -6793,10 +6794,10 @@
       <c r="J28" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K28" s="85"/>
-      <c r="L28" s="86"/>
-    </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+      <c r="K28" s="82"/>
+      <c r="L28" s="83"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="26"/>
       <c r="B29" s="24"/>
       <c r="C29" s="24" t="s">
@@ -6821,9 +6822,9 @@
       <c r="J29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K29" s="85"/>
-    </row>
-    <row r="30" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K29" s="82"/>
+    </row>
+    <row r="30" spans="1:12" ht="100.5" customHeight="1">
       <c r="A30" s="17">
         <v>112026</v>
       </c>
@@ -6859,7 +6860,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -6870,7 +6871,7 @@
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="8"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -6881,7 +6882,7 @@
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9">
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -6890,7 +6891,7 @@
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9">
       <c r="A34" s="8"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -6901,7 +6902,7 @@
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -6912,7 +6913,7 @@
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9">
       <c r="A36" s="8"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -6923,7 +6924,7 @@
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9">
       <c r="A37" s="8"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -6934,7 +6935,7 @@
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9">
       <c r="A38" s="8"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -6945,7 +6946,7 @@
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9">
       <c r="A39" s="8"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -6956,7 +6957,7 @@
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9">
       <c r="A40" s="8"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -6967,7 +6968,7 @@
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9">
       <c r="A41" s="8"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -6978,7 +6979,7 @@
       <c r="H41" s="8"/>
       <c r="I41" s="8"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9">
       <c r="A42" s="8"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -6989,7 +6990,7 @@
       <c r="H42" s="8"/>
       <c r="I42" s="8"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9">
       <c r="A43" s="8"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -7000,7 +7001,7 @@
       <c r="H43" s="8"/>
       <c r="I43" s="8"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9">
       <c r="A44" s="8"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -7011,7 +7012,7 @@
       <c r="H44" s="8"/>
       <c r="I44" s="8"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9">
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -7022,7 +7023,7 @@
       <c r="H45" s="8"/>
       <c r="I45" s="8"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -7033,7 +7034,7 @@
       <c r="H46" s="8"/>
       <c r="I46" s="8"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -7044,7 +7045,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -7055,7 +7056,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9">
       <c r="A49" s="8"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -7066,7 +7067,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9">
       <c r="A50" s="8"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -7077,7 +7078,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9">
       <c r="A51" s="8"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -7088,7 +7089,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9">
       <c r="A52" s="8"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -7099,7 +7100,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9">
       <c r="A53" s="8"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -7110,7 +7111,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9">
       <c r="A54" s="8"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -7121,7 +7122,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9">
       <c r="A55" s="8"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -7132,7 +7133,7 @@
       <c r="H55" s="8"/>
       <c r="I55" s="8"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -7143,7 +7144,7 @@
       <c r="H56" s="8"/>
       <c r="I56" s="8"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -7154,7 +7155,7 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9">
       <c r="A58" s="8"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -7165,7 +7166,7 @@
       <c r="H58" s="8"/>
       <c r="I58" s="8"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9">
       <c r="A59" s="8"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -7176,7 +7177,7 @@
       <c r="H59" s="8"/>
       <c r="I59" s="8"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9">
       <c r="A60" s="8"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -7187,7 +7188,7 @@
       <c r="H60" s="8"/>
       <c r="I60" s="8"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9">
       <c r="A61" s="8"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -7198,7 +7199,7 @@
       <c r="H61" s="8"/>
       <c r="I61" s="8"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9">
       <c r="A62" s="8"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -7209,7 +7210,7 @@
       <c r="H62" s="8"/>
       <c r="I62" s="8"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9">
       <c r="A63" s="8"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -7220,7 +7221,7 @@
       <c r="H63" s="8"/>
       <c r="I63" s="8"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9">
       <c r="A64" s="8"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -7231,7 +7232,7 @@
       <c r="H64" s="8"/>
       <c r="I64" s="8"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9">
       <c r="A65" s="8"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -7242,7 +7243,7 @@
       <c r="H65" s="8"/>
       <c r="I65" s="8"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9">
       <c r="A66" s="8"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -7253,7 +7254,7 @@
       <c r="H66" s="8"/>
       <c r="I66" s="8"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9">
       <c r="A67" s="8"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -7264,7 +7265,7 @@
       <c r="H67" s="8"/>
       <c r="I67" s="8"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9">
       <c r="A68" s="8"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -7275,7 +7276,7 @@
       <c r="H68" s="8"/>
       <c r="I68" s="8"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9">
       <c r="A69" s="8"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -7326,12 +7327,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="52.6640625" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="59" t="s">
         <v>4</v>
       </c>
@@ -7339,171 +7340,171 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="75" t="s">
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="84" t="s">
         <v>39</v>
       </c>
       <c r="B2" s="60" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="84" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="60" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="75" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="84" t="s">
         <v>45</v>
       </c>
       <c r="B4" s="60" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="75" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="84" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="60" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="75" t="s">
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="84" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="60" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="75" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="84" t="s">
         <v>73</v>
       </c>
       <c r="B7" s="60" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="75" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="84" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="60" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="75" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="84" t="s">
         <v>74</v>
       </c>
       <c r="B9" s="60" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="75" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="85" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="75" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="85" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="75" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="84" t="s">
         <v>133</v>
       </c>
       <c r="B12" s="60" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="75" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="85" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="75" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="84" t="s">
         <v>137</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="85" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="75" t="s">
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="84" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="85" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="75" t="s">
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="85" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="75" t="s">
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="84" t="s">
         <v>76</v>
       </c>
       <c r="B17" s="60" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="75" t="s">
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="84" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="85" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="75" t="s">
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="85" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="75" t="s">
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="85" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="75" t="s">
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="77" t="s">
+      <c r="B21" s="86" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="75" t="s">
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="84" t="s">
         <v>148</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="85" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7513,6 +7514,69 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>Pem Wangdi</DisplayName>
+        <AccountId>1587</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Adnan Cheema</DisplayName>
+        <AccountId>1811</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Akiko Yamamoto</DisplayName>
+        <AccountId>84</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Riad Meddeb</DisplayName>
+        <AccountId>9</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Benjamin Keller</DisplayName>
+        <AccountId>1227</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Stefano Pistolese</DisplayName>
+        <AccountId>772</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Saw Win Myo San</DisplayName>
+        <AccountId>1588</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Kyaw Zin Aung Soe</DisplayName>
+        <AccountId>2010</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Jessie Ponce</DisplayName>
+        <AccountId>1809</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Lat Lat Aye</DisplayName>
+        <AccountId>1834</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -7521,9 +7585,9 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -7548,6 +7612,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -7627,6 +7692,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -7770,103 +7840,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>Pem Wangdi</DisplayName>
-        <AccountId>1587</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Adnan Cheema</DisplayName>
-        <AccountId>1811</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Akiko Yamamoto</DisplayName>
-        <AccountId>84</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Riad Meddeb</DisplayName>
-        <AccountId>9</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Benjamin Keller</DisplayName>
-        <AccountId>1227</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Stefano Pistolese</DisplayName>
-        <AccountId>772</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Saw Win Myo San</DisplayName>
-        <AccountId>1588</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Kyaw Zin Aung Soe</DisplayName>
-        <AccountId>2010</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Jessie Ponce</DisplayName>
-        <AccountId>1809</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Lat Lat Aye</DisplayName>
-        <AccountId>1834</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AE853E-4F37-4A3C-B15C-49DE17FB657C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87DAB1ED-73B6-46CD-978D-DDC5D0F3F477}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83981D53-9EA2-4F8A-A632-D9F3E2E44328}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7AE853E-4F37-4A3C-B15C-49DE17FB657C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87DAB1ED-73B6-46CD-978D-DDC5D0F3F477}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFBEADC0-4F19-45ED-914F-1FFE20B7C773}"/>
 </file>